--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{5036B98C-727D-4527-8AD4-D6825B40FD1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25425301-963C-45A1-9D0C-EFEB2AC128E1}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{5036B98C-727D-4527-8AD4-D6825B40FD1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FBD6CB9-0A8F-4BC4-A250-1D872DDECA7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -77,12 +77,6 @@
     <t>AWccDUqXgd1r</t>
   </si>
   <si>
-    <t>Thaxter</t>
-  </si>
-  <si>
-    <t>Craigmile</t>
-  </si>
-  <si>
     <t>uHUZic</t>
   </si>
   <si>
@@ -263,10 +257,22 @@
     <t>rdreinatn9@google.com</t>
   </si>
   <si>
-    <t>vthwaijte4@ucoz.com</t>
-  </si>
-  <si>
-    <t>tcraigkmpla3@sitemeter.com</t>
+    <t>kokokmpla3@sitemeter.com</t>
+  </si>
+  <si>
+    <t>kokolok</t>
+  </si>
+  <si>
+    <t>Craigkook</t>
+  </si>
+  <si>
+    <t>vthwakoko@ucoz.com</t>
+  </si>
+  <si>
+    <t>Vaniakok</t>
+  </si>
+  <si>
+    <t>Thwaitenkn</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,6 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,7 +759,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +796,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -807,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>8</v>
@@ -820,29 +827,29 @@
       <c r="B3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>82</v>
+      <c r="C3" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -853,28 +860,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -885,28 +892,28 @@
         <v>0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -917,28 +924,28 @@
         <v>0</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -949,28 +956,28 @@
         <v>0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -981,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1011,7 +1018,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>5</v>
@@ -1045,25 +1052,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -1075,19 +1082,19 @@
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>3</v>
@@ -1105,59 +1112,59 @@
         <v>7</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>83</v>
+      <c r="C14" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="G14" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="8" t="b">
         <v>0</v>
@@ -1166,36 +1173,36 @@
         <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="8" t="b">
         <v>0</v>
@@ -1204,36 +1211,36 @@
         <v>12</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="G16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8" t="b">
         <v>0</v>
@@ -1242,36 +1249,36 @@
         <v>13</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="8" t="b">
         <v>0</v>
@@ -1280,36 +1287,36 @@
         <v>14</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="8" t="b">
         <v>0</v>
@@ -1318,36 +1325,36 @@
         <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="G19" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="8" t="b">
         <v>0</v>
@@ -1356,31 +1363,31 @@
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
